--- a/Results/ФОПи, які звітують по залишкам, але відсутні в таблиці ЦГЗ.xlsx
+++ b/Results/ФОПи, які звітують по залишкам, але відсутні в таблиці ЦГЗ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>property_type</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Прізвище</t>
         </is>
       </c>
@@ -542,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -550,6 +555,11 @@
         </is>
       </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>григоришина</t>
         </is>
@@ -595,10 +605,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -606,6 +616,11 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>червякова</t>
         </is>
@@ -651,10 +666,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -662,6 +677,11 @@
         </is>
       </c>
       <c r="L4" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>г.кліщевська</t>
         </is>
@@ -707,10 +727,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -718,6 +738,11 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>михалевський</t>
         </is>
@@ -766,7 +791,7 @@
         <v>46</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -774,6 +799,11 @@
         </is>
       </c>
       <c r="L6" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>"горошко</t>
         </is>
@@ -819,10 +849,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -830,6 +860,11 @@
         </is>
       </c>
       <c r="L7" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>"шпорт</t>
         </is>
@@ -838,36 +873,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2562701239</t>
+          <t>2986403644</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ФОП "Маланчик"</t>
+          <t>ФОП Климук К.В.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2249001B</t>
+          <t>68D23040A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ІПВ</t>
+          <t>ОПВ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bilthoven Biologicals B.V.</t>
+          <t>Bharat Biotech Int.Ltd, Індія</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45999</v>
+        <v>45505</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -875,55 +910,60 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45317</v>
+        <v>45345</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Донецька область</t>
+          <t>Дніпропетровська область</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>"маланчик"</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>климук</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>43968084</t>
+          <t>2562701239</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ФОП "Бенько Г.С."</t>
+          <t>ФОП "Маланчик"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>68D23011A</t>
+          <t>2249001B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ОПВ</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+          <t>Bilthoven Biologicals B.V.</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45377</v>
+        <v>45999</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -931,286 +971,311 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45323</v>
+        <v>45338</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>Донецька область</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>"бенько</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>"маланчик"</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3334619475</t>
+          <t>2584015708</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ФОП Венгринович В.В.</t>
+          <t xml:space="preserve">ФОП Венгер С.І </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D2708</t>
+          <t>2204008A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>АДП-М</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+          <t>Inactivated poliomyelitis vaccine</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+          <t>Bilthoven Biologicals B.V.A. Netherlands</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45991</v>
+        <v>45646</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>20</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45323</v>
+        <v>45345</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>Житомирська область</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>венгер</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>43968084</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ФОП "Бенько Г.С."</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D2708</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>АДП-М</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Івано-Франківська область</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>венгринович</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ФОП Венгринович В.В.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>68D23011A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ОПВ</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>45377</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Гуманітарна допомога</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Івано-Франківська область</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>венгринович</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>"бенько</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2339913111</t>
+          <t>3334619475</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ФОП "Сем'янчук В.Б."</t>
+          <t>ФОП Венгринович В.В.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>68D23011A</t>
+          <t>D2708</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>АДП-М</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Івано-Франківська область</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>венгринович</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ФОП Венгринович В.В.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>68D23040А</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>ОПВ</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
         </is>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>45377</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G13" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Гуманітарна допомога</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Івано-Франківська область</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>"сем'янчук</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2859407383</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ФОП Мегединник Ганна Володимирівна</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>X007787</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>КПК</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>45438</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Гуманітарна допомога</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>114</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Івано-Франківська область</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>мегединник</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>венгринович</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2339913117</t>
+          <t>2339913111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Здорова малеча ФОП Савюк </t>
+          <t>ФОП "Сем'янчук В.Б."</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2310002A</t>
+          <t>UFA23503</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ІПВ</t>
+          <t>ГепВ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>ЕУВАКС В ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ГЕПАТИТУ В РЕКОМБІНАНТНА РІДКА суспензія для ін'єкцій 10 мкг/дозу по 05 мл (1 доза) у флаконі,</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>ЕУВАКС В ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ГЕПАТИТУ В РЕКОМБІНАНТНА РІДКА суспензія для ін'єкцій 10 мкг/дозу по 05 мл (1 доза) у флаконі,</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46067</v>
+        <v>46088</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2022</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45323</v>
+        <v>45331</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1219,24 +1284,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>здорова</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>"сем'янчук</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3285120231</t>
+          <t>2859407383</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ФОП Корнеев</t>
+          <t>ФОП Мегединник Ганна Володимирівна</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AMJRE680AA</t>
+          <t>X007787</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1246,16 +1316,16 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PRIORIX vaccine</t>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Гласко Сміт Кляйн,Біолоджікалз С.А.,Бельгія</t>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45657</v>
+        <v>45438</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1263,55 +1333,60 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45324</v>
+        <v>45331</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>Івано-Франківська область</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>корнеев</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>мегединник</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2918018806</t>
+          <t>2339913117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ФОП Заремба </t>
+          <t xml:space="preserve">Здорова малеча ФОП Савюк </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>X007787</t>
+          <t>2310002A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>КПК</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Merck &amp; Co., Inc.</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45438</v>
+        <v>46067</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1319,297 +1394,571 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>45261</v>
+        <v>45331</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>Івано-Франківська область</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>заремба</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>здорова</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2481607082</t>
+          <t>3285120231</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ФОП "Качуровська Ж.Д."</t>
+          <t>ФОП Корнеев</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1141M019A</t>
+          <t>AMJRE680AA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ХІБ</t>
+          <t>КПК</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+          <t>PRIORIX vaccine</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+          <t>Гласко Сміт Кляйн,Біолоджікалз С.А.,Бельгія</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45433</v>
+        <v>45657</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Київська область</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>"качуровська</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>корнеев</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2847608002</t>
+          <t>3088718663</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ФОП "Коровкіна К.Ю."</t>
+          <t>ФОП "РАДЬКО"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1141M019A</t>
+          <t>2324002A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ХІБ</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+          <t>Bilthoven Biologicals B.V. Netherlands</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45433</v>
+        <v>46155</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Кіровоградська область</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>"коровкіна</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>"радько"</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>252818590</t>
+          <t>2918018806</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ФОП "Тімнов В.О."</t>
+          <t xml:space="preserve">ФОП Заремба </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UFA22005</t>
+          <t>X007787</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ГепВ</t>
+          <t>КПК</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ЕУВАКС В Вакцина для профілактики гепатиту В, рекомбінантна рідка, суспензія для ін'єкцій, 10 мкг/дозу,по 0,5 мл (1 доза) у флаконі; по 10 флаконів у картонній пачці</t>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ЕлДжі Лайф Сайенсіс Лтд,Корея</t>
+          <t>Merck &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45726</v>
+        <v>45438</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>45324</v>
+        <v>45338</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>Львівська область</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>"тімнов</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>заремба</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3400210471</t>
+          <t>2481607082</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Мій лікар ФОП Гузик Владислав Олегович</t>
+          <t>ФОП "Качуровська Ж.Д."</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>222600722B</t>
+          <t>1141M019A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>АДП-М</t>
+          <t>ХІБ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ДИФТЕРІЇ ТА ПРАВЦЯ АДСОРБОВАНА ІЗ ЗМЕНШЕНИМ ВМІСТОМ АНТИГЕНУ суспензія для ін'єкцій по 10 доз (одна доза 05 мл) по 5 мл у флаконі; по 24 флакони в пачці з картону,</t>
+          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>БАЙОЛОДЖІКАЛ І. ЛІМІТЕД, Індія</t>
+          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45777</v>
+        <v>45433</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>Миколаївська область</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>мій</t>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>"качуровська</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2847608002</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ФОП "Коровкіна К.Ю."</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1141M019A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ХІБ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Миколаївська область</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>"коровкіна</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>252818590</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ФОП "Тімнов В.О."</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1141M019A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ХІБ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Миколаївська область</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>"тімнов</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3400210471</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Мій лікар ФОП Гузик Владислав Олегович</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>222600722B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>АДП-М</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ДИФТЕРІЇ ТА ПРАВЦЯ АДСОРБОВАНА ІЗ ЗМЕНШЕНИМ ВМІСТОМ АНТИГЕНУ суспензія для ін'єкцій по 10 доз (одна доза 05 мл) по 5 мл у флаконі; по 24 флакони в пачці з картону,</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>БАЙОЛОДЖІКАЛ І. ЛІМІТЕД, Індія</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Одеська область</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>мій</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2519414605</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ФОП ЗПСМ та терапія Ланкіна Г.І.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>X008927</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПК</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Merck &amp; Co., Inc.</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Одеська область</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>зпсм</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>2727016128</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>ФОП КовенькоТ.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>X007039</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>КПК</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Merck &amp; Co., Inc.</t>
         </is>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G25" s="2" t="n">
         <v>45725</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Гуманітарна допомога</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="I25" t="n">
+        <v>19</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Рівненська область</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>ковенькот.</t>
         </is>

--- a/Results/ФОПи, які звітують по залишкам, але відсутні в таблиці ЦГЗ.xlsx
+++ b/Results/ФОПи, які звітують по залишкам, але відсутні в таблиці ЦГЗ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,7 +551,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>вінницька</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>григоришина</t>
+          <t>григоришина+вінницька</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Вінницька область</t>
+          <t>вінницька</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>червякова</t>
+          <t>червякова+вінницька</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>волинська</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>г.кліщевська</t>
+          <t>г.кліщевська+волинська</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Волинська область</t>
+          <t>волинська</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>михалевський</t>
+          <t>михалевський+волинська</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>дніпропетровська</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -805,58 +805,58 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>"горошко</t>
+          <t>"горошко+дніпропетровська</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2889703358</t>
+          <t>3254011678</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ФОП "Шпорт А.Я."</t>
+          <t>ФОП Білишко</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FWL21506</t>
+          <t>0401622</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Пента</t>
+          <t>АДП</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eupenta inj.DTP-Hib-HepB 0,5mL</t>
+          <t>АДСОРБОВАНА ВАКЦИНА ДТ / ADSORBED DT VACCINE, суспензія для ін'єкцій по 10 доз (1 доза 0.5 мл) по 5 мл у флаконах № 10 у картонній коробці</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ЕлДжі Лайф Сайенсіс Лтд,Корея</t>
+          <t>ПТ БІО ФАРМА (Персеро), Індонезія</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45657</v>
+        <v>46012</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>дніпропетровська</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -866,43 +866,43 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>"шпорт</t>
+          <t>білишко+дніпропетровська</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2986403644</t>
+          <t>2889703358</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ФОП Климук К.В.</t>
+          <t>ФОП "Шпорт А.Я."</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>68D23040A</t>
+          <t>FWL21506</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ОПВ</t>
+          <t>Пента</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+          <t>Eupenta inj.DTP-Hib-HepB 0,5mL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bharat Biotech Int.Ltd, Індія</t>
+          <t>ЕлДжі Лайф Сайенсіс Лтд,Корея</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45505</v>
+        <v>45657</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -910,14 +910,14 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Дніпропетровська область</t>
+          <t>дніпропетровська</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -927,58 +927,58 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>климук</t>
+          <t>"шпорт+дніпропетровська</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2562701239</t>
+          <t>3216713340</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ФОП "Маланчик"</t>
+          <t>ФОП Мерзляк</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2249001B</t>
+          <t>0401622</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ІПВ</t>
+          <t>АДП</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>АДСОРБОВАНА ВАКЦИНА ДТ / ADSORBED DT VACCINE, суспензія для ін'єкцій по 10 доз (1 доза 0.5 мл) по 5 мл у флаконах № 10 у картонній коробці</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bilthoven Biologicals B.V.</t>
+          <t>ПТ БІО ФАРМА (Персеро), Індонезія</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45999</v>
+        <v>46012</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Донецька область</t>
+          <t>дніпропетровська</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -988,43 +988,43 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>"маланчик"</t>
+          <t>мерзляк+дніпропетровська</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2584015708</t>
+          <t>2986403644</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ФОП Венгер С.І </t>
+          <t>ФОП Климук К.В.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2204008A</t>
+          <t>68D23040A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ІПВ</t>
+          <t>ОПВ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inactivated poliomyelitis vaccine</t>
+          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bilthoven Biologicals B.V.A. Netherlands</t>
+          <t>Bharat Biotech Int.Ltd, Індія</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45646</v>
+        <v>45505</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1032,14 +1032,14 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Житомирська область</t>
+          <t>дніпропетровська</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1049,58 +1049,54 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>венгер</t>
+          <t>климук+дніпропетровська</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>43968084</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ФОП "Бенько Г.С."</t>
+          <t>ФОП Пасько Г.І.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D2708</t>
+          <t>68D23040А</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>АДП-М</t>
+          <t>ОПВ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+          <t>Bharat Biotech Int.Ltd, Індія</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45991</v>
+        <v>45505</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45331</v>
+        <v>45345</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>дніпропетровська</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1110,58 +1106,58 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>"бенько</t>
+          <t>пасько+дніпропетровська</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3334619475</t>
+          <t>2562701239</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ФОП Венгринович В.В.</t>
+          <t>ФОП "Маланчик"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D2708</t>
+          <t>2249001B</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>АДП-М</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
+          <t>Bilthoven Biologicals B.V.</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45991</v>
+        <v>45999</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45331</v>
+        <v>45338</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>донецька</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1171,39 +1167,43 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>венгринович</t>
+          <t>"маланчик"+донецька</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2584015708</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ФОП Венгринович В.В.</t>
+          <t xml:space="preserve">ФОП Венгер С.І </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>68D23040А</t>
+          <t>2204008A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ОПВ</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+          <t>Inactivated poliomyelitis vaccine</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+          <t>Bilthoven Biologicals B.V.A. Netherlands</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45505</v>
+        <v>45646</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1211,14 +1211,14 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45331</v>
+        <v>45345</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>житомирська</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1228,58 +1228,58 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>венгринович</t>
+          <t>венгер+житомирська</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2339913111</t>
+          <t>3451917236</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ФОП "Сем'янчук В.Б."</t>
+          <t>ФОП Кабан В.Б.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UFA23503</t>
+          <t>2310002A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ГепВ</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ЕУВАКС В ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ГЕПАТИТУ В РЕКОМБІНАНТНА РІДКА суспензія для ін'єкцій 10 мкг/дозу по 05 мл (1 доза) у флаконі,</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ЕУВАКС В ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ГЕПАТИТУ В РЕКОМБІНАНТНА РІДКА суспензія для ін'єкцій 10 мкг/дозу по 05 мл (1 доза) у флаконі,</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46088</v>
+        <v>46067</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Державний бюджет 2022</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1289,58 +1289,58 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>"сем'янчук</t>
+          <t>кабан+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2859407383</t>
+          <t>43968084</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ФОП Мегединник Ганна Володимирівна</t>
+          <t>ФОП "Бенько Г.С."</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>X007787</t>
+          <t>D2708</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>КПК</t>
+          <t>АДП-М</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45438</v>
+        <v>45991</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1350,58 +1350,58 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>мегединник</t>
+          <t>"бенько+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2339913117</t>
+          <t>3334619475</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Здорова малеча ФОП Савюк </t>
+          <t>ФОП Венгринович В.В.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2310002A</t>
+          <t>D2708</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ІПВ</t>
+          <t>АДП-М</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>46067</v>
+        <v>45991</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Івано-Франківська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1411,58 +1411,58 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>здорова</t>
+          <t>венгринович+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3285120231</t>
+          <t>2339913111</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ФОП Корнеев</t>
+          <t>ФОП "Сем'янчук В.Б."</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AMJRE680AA</t>
+          <t>UFA23503</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>КПК</t>
+          <t>ГепВ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PRIORIX vaccine</t>
+          <t>ЕУВАКС В ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ГЕПАТИТУ В РЕКОМБІНАНТНА РІДКА суспензія для ін'єкцій 10 мкг/дозу по 05 мл (1 доза) у флаконі,</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Гласко Сміт Кляйн,Біолоджікалз С.А.,Бельгія</t>
+          <t>ЕУВАКС В ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ГЕПАТИТУ В РЕКОМБІНАНТНА РІДКА суспензія для ін'єкцій 10 мкг/дозу по 05 мл (1 доза) у флаконі,</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45657</v>
+        <v>46088</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2022</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>45345</v>
+        <v>45331</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Київська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1472,43 +1472,43 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>корнеев</t>
+          <t>"сем'янчук+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3088718663</t>
+          <t>2859407383</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ФОП "РАДЬКО"</t>
+          <t>ФОП Мегединник Ганна Володимирівна</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2324002A</t>
+          <t>X007787</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ІПВ</t>
+          <t>КПК</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inactivated Poliomyelitis Vaccine</t>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bilthoven Biologicals B.V. Netherlands</t>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>46155</v>
+        <v>45438</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1516,14 +1516,14 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>45345</v>
+        <v>45331</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Кіровоградська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1533,24 +1533,24 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>"радько"</t>
+          <t>мегединник+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2918018806</t>
+          <t>3076817858</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ФОП Заремба </t>
+          <t>ФОП Білошицький Олександр Михайлович</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>X007787</t>
+          <t>AMJRE616AB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1560,31 +1560,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+          <t xml:space="preserve">PRIO.VIAL.2DX100 VVM DX WH (TEND) Combined Measles, Mumps and Rubella vaccine (live) </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Merck &amp; Co., Inc.</t>
+          <t xml:space="preserve">PRIO.VIAL.2DX100 VVM DX WH (TEND) Combined Measles, Mumps and Rubella vaccine (live) </t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45438</v>
+        <v>45473</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>45338</v>
+        <v>45331</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Львівська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1594,58 +1594,58 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>заремба</t>
+          <t>білошицький+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2481607082</t>
+          <t>2339913117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ФОП "Качуровська Ж.Д."</t>
+          <t xml:space="preserve">Здорова малеча ФОП Савюк </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1141M019A</t>
+          <t>2310002A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ХІБ</t>
+          <t>ІПВ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+          <t>Inactivated Poliomyelitis Vaccine</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45433</v>
+        <v>46067</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>45345</v>
+        <v>45331</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>івано-франківська</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1655,58 +1655,58 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>"качуровська</t>
+          <t>здорова+івано-франківська</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2847608002</t>
+          <t>3285120231</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ФОП "Коровкіна К.Ю."</t>
+          <t>ФОП Корнеев</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1141M019A</t>
+          <t>AMJRE680AA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ХІБ</t>
+          <t>КПК</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+          <t>PRIORIX vaccine</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+          <t>Гласко Сміт Кляйн,Біолоджікалз С.А.,Бельгія</t>
         </is>
       </c>
       <c r="G21" s="2" t="n">
-        <v>45433</v>
+        <v>45657</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Державний бюджет 2021</t>
+          <t>Гуманітарна допомога</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>київська</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1716,43 +1716,43 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>"коровкіна</t>
+          <t>корнеев+київська</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>252818590</t>
+          <t>2936213862</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ФОП "Тімнов В.О."</t>
+          <t>ФОП Мороз</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1141M019A</t>
+          <t>D2720-E1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ХІБ</t>
+          <t>АДП-М</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+          <t>ТЕТАДІФ суспензія для ін'єкцій 0,5 мл (1 доза), флакони по 5 мл. (10 доз), по 10 флаконів у картонній коробці</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+          <t>ББ-НЦІПХЛтд. Болгарія</t>
         </is>
       </c>
       <c r="G22" s="2" t="n">
-        <v>45433</v>
+        <v>46081</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1760,14 +1760,14 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Миколаївська область</t>
+          <t>київська</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1777,43 +1777,43 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>"тімнов</t>
+          <t>мороз+київська</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3400210471</t>
+          <t>3198123020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Мій лікар ФОП Гузик Владислав Олегович</t>
+          <t>ФОП Лавренчук Ірина Олегівна</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>222600722B</t>
+          <t>68D23040А</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>АДП-М</t>
+          <t>ОПВ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ДИФТЕРІЇ ТА ПРАВЦЯ АДСОРБОВАНА ІЗ ЗМЕНШЕНИМ ВМІСТОМ АНТИГЕНУ суспензія для ін'єкцій по 10 доз (одна доза 05 мл) по 5 мл у флаконі; по 24 флакони в пачці з картону,</t>
+          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>БАЙОЛОДЖІКАЛ І. ЛІМІТЕД, Індія</t>
+          <t>Bharat Biotech Int.Ltd, Індія</t>
         </is>
       </c>
       <c r="G23" s="2" t="n">
-        <v>45777</v>
+        <v>45505</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1821,14 +1821,14 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>київська</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1838,58 +1838,58 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>мій</t>
+          <t>лавренчук+київська</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2519414605</t>
+          <t>3311003792</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ФОП ЗПСМ та терапія Ланкіна Г.І.</t>
+          <t>ФОП ПАГІЄВ І.Ф.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>X008927</t>
+          <t>0401622</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>КПК</t>
+          <t>АДП</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+          <t>АДСОРБОВАНА ВАКЦИНА ДТ / ADSORBED DT VACCINE, суспензія для ін'єкцій по 10 доз (1 доза 0.5 мл) по 5 мл у флаконах № 10 у картонній коробці</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Merck &amp; Co., Inc.</t>
+          <t>ПТ БІО ФАРМА (Персеро), Індонезія</t>
         </is>
       </c>
       <c r="G24" s="2" t="n">
-        <v>45438</v>
+        <v>46012</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Гуманітарна допомога</t>
+          <t>Державний бюджет 2021</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Одеська область</t>
+          <t>кіровоградська</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1899,68 +1899,862 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>зпсм</t>
+          <t>пагієв+кіровоградська</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>3312303896</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ФОП ЯКОВЕНКО</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>222600722B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>АДП-М</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ДИФТЕРІЇ ТА ПРАВЦЯ АДСОРБОВАНА ІЗ ЗМЕНШЕНИМ ВМІСТОМ АНТИГЕНУ суспензія для ін'єкцій по 10 доз (одна доза 05 мл) по 5 мл у флаконі; по 24 флакони в пачці з картону,</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>БАЙОЛОДЖІКАЛ І. ЛІМІТЕД, Індія</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>60</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>кіровоградська</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>яковенко+кіровоградська</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3088718663</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ФОП "РАДЬКО"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2324002A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ІПВ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Inactivated Poliomyelitis Vaccine</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bilthoven Biologicals B.V. Netherlands</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>46155</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>кіровоградська</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>"радько"+кіровоградська</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3296511462</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ФОП ПЕНЬКАЧ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>221100223B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>АКДП</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DTP VACCINE (2023) Adsorbed Diphtheria, Tetanus and Pertussis vaccine Pediatric dose, vial of 10 doses
+With Vaccine Vial Monitor (VVM)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>БАЙОЛОДЖІКАЛ І. ЛІМІТЕД, Індія</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>129</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>кіровоградська</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>пенькач+кіровоградська</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2918018806</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ФОП Заремба </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>X007787</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>КПК</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Merck &amp; Co., Inc.</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>35</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>львівська</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>заремба+львівська</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3432003184</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ФОП Ходан </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2204008A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ІПВ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Inactivated poliomyelitis vaccine</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bilthoven Biologicals B.V.A. Netherlands</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>15</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>львівська</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ходан+львівська</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2481607082</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ФОП "Качуровська Ж.Д."</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1141M019A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ХІБ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>миколаївська</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>"качуровська+миколаївська</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2847608002</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ФОП "Коровкіна К.Ю."</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1141M019A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ХІБ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>миколаївська</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>"коровкіна+миколаївська</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>252818590</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ФОП "Тімнов В.О."</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1141M019A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ХІБ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА КОН`ЮГОВАНА ДЛЯ ПРОФІЛАКТИКИ ЗАХВОРЮВАНЬ ЗБУДНИКОМ ЯКИХ Є HAEMOPHILUS INFLUENZAE ТИПУ В. Ліофілізат для розчину для ін`єкцій по 1 дозі (10 мкг PRP) у флаконах № 50 у комплекті з розчинником ( 04 % розчин натрію хлориду) у ампулах №50,</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>СЕРУМ ІНСТИТУТ ІНДІЇ ПВТ. ЛТД., Індія</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Державний бюджет 2021</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>миколаївська</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>"тімнов+миколаївська</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3400210471</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Мій лікар ФОП Гузик Владислав Олегович</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>222600722B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>АДП-М</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ВАКЦИНА ДЛЯ ПРОФІЛАКТИКИ ДИФТЕРІЇ ТА ПРАВЦЯ АДСОРБОВАНА ІЗ ЗМЕНШЕНИМ ВМІСТОМ АНТИГЕНУ суспензія для ін'єкцій по 10 доз (одна доза 05 мл) по 5 мл у флаконі; по 24 флакони в пачці з картону,</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>БАЙОЛОДЖІКАЛ І. ЛІМІТЕД, Індія</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>одеська</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>мій+одеська</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2519414605</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ФОП ЗПСМ та терапія Ланкіна Г.І.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>X008927</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>КПК</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Merck &amp; Co., Inc.</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>одеська</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>зпсм+одеська</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2598520904</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ФОП Соколова Лариса Володимирівна</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AMJRE609BA</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>КПК</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PRIO.VIAL.2DX100 VVM DX WH (TEND) Combined Measles, Mumps and Rubella vaccine (live)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Гласко Сміт Кляйн,Біолоджікалз С.А.,Бельгія</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>полтавська</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>соколова+полтавська</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>2727016128</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>ФОП КовенькоТ.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>X007039</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>КПК</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>MMRVAXPRO II 0,5ML 10X1DOSE VIAL L25</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Merck &amp; Co., Inc.</t>
         </is>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G36" s="2" t="n">
         <v>45725</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Гуманітарна допомога</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I36" t="n">
         <v>19</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J36" s="2" t="n">
         <v>45344</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Рівненська область</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>ФОП</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>ковенькот.</t>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>рівненська</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ковенькот.+рівненська</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3302400393</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ФОП Млавець С.Ф.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>68D23040А</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ОПВ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bharat Biotech Int.Ltd, Індія</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>20</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>черкаська</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>млавець+черкаська</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3286713595</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ФОП Агафонов Є.О.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>68D23011A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ОПВ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bivalent Poliomyelitis Vaccine Tipe 1&amp;3, Live (Oral), BIOPOLIO B1/3, 1mL Vail of 10 doses</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Bharat Biotech Int.Ltd, Індія</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Гуманітарна допомога</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>17</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>запорізька</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>агафонов+запорізька</t>
         </is>
       </c>
     </row>
